--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,48 +49,51 @@
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
@@ -100,36 +103,30 @@
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>would</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
@@ -160,52 +157,52 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
   </si>
   <si>
     <t>play</t>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -688,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7323943661971831</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7150537634408602</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C6">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.796875</v>
@@ -838,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6959459459459459</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.6981132075471698</v>
@@ -888,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6601941747572816</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.5724533715925395</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L8">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>298</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6181818181818182</v>
+        <v>0.640625</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.5652173913043478</v>
+        <v>0.5796269727403156</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6134453781512605</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.5435684647302904</v>
+        <v>0.5456431535269709</v>
       </c>
       <c r="L10">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M10">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.609375</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.4721311475409836</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L11">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M11">
         <v>576</v>
@@ -1077,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>644</v>
@@ -1088,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5304347826086957</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C12">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D12">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.3855421686746988</v>
+        <v>0.3730886850152905</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>102</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4566929133858268</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>47</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>0.3650793650793651</v>
+      </c>
+      <c r="L13">
         <v>69</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13">
-        <v>0.382262996941896</v>
-      </c>
-      <c r="L13">
-        <v>125</v>
-      </c>
       <c r="M13">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>202</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4457831325301205</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.3583333333333333</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4028436018957346</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.291005291005291</v>
+        <v>0.35</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3828125</v>
+        <v>0.3601895734597156</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.2578125</v>
+        <v>0.2734375</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3789473684210526</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,31 +1353,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.2379032258064516</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L17">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>189</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3258426966292135</v>
+        <v>0.3125</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.2237762237762238</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2722772277227723</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.1881720430107527</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2216494845360825</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,31 +1503,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.1764705882352941</v>
+        <v>0.1763157894736842</v>
       </c>
       <c r="L20">
         <v>201</v>
       </c>
       <c r="M20">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.215</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1556,31 +1553,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.1176470588235294</v>
+        <v>0.1027308192457737</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>330</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2065217391304348</v>
+        <v>0.21</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.08913649025069638</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1835443037974684</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,31 +1653,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.08896103896103896</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L23">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1403</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,49 +1685,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.181547619047619</v>
+        <v>0.187221396731055</v>
       </c>
       <c r="C24">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D24">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.05503355704697987</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N24">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,25 +1735,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1809523809523809</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1764,13 +1761,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1728971962616822</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1782,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1790,25 +1787,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1611479028697572</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C27">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>380</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1816,25 +1813,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1584699453551913</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>154</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1842,25 +1839,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1527377521613833</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D29">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>294</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1868,13 +1865,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1518324607329843</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1886,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>162</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1894,25 +1891,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1240601503759398</v>
+        <v>0.09295774647887324</v>
       </c>
       <c r="C31">
         <v>33</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>233</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1920,7 +1917,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1098901098901099</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -1938,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>324</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1946,25 +1943,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07589285714285714</v>
+        <v>0.07260726072607261</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>414</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1972,25 +1969,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.07296849087893864</v>
+        <v>0.05979643765903308</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D34">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F34">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>559</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1998,51 +1995,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.06091370558375635</v>
+        <v>0.05053598774885146</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F35">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.05359877488514548</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>37</v>
-      </c>
-      <c r="E36">
-        <v>0.05</v>
-      </c>
-      <c r="F36">
-        <v>0.95</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
